--- a/data_year/zb/教育/初中学校和学生情况/初中在校学生数.xlsx
+++ b/data_year/zb/教育/初中学校和学生情况/初中在校学生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -548,7 +548,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>6256.3</v>
+        <v>5279.3</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -567,94 +567,208 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>33.5626</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.7861</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1162.9815</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1557</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1116.1326</v>
+      </c>
+      <c r="G3" t="n">
+        <v>43.9071</v>
+      </c>
       <c r="H3" t="n">
-        <v>6514.4</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>5066.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>18.6933</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2467.4229</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.8216</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2266.5947</v>
+      </c>
+      <c r="M3" t="n">
+        <v>180.3133</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.0073</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12.0832</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1436.398</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1204.9436</v>
+      </c>
+      <c r="S3" t="n">
+        <v>218.3412</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4587.6709</v>
+      </c>
+      <c r="U3" t="n">
+        <v>442.5616</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>33.7088</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.8927</v>
+      </c>
+      <c r="D4" t="n">
+        <v>974.0993</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0412</v>
+      </c>
+      <c r="F4" t="n">
+        <v>934.3622</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36.8032</v>
+      </c>
       <c r="H4" t="n">
-        <v>6687.4</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>4763.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20.8672</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2347.9363</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.0249</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2140.8017</v>
+      </c>
+      <c r="M4" t="n">
+        <v>185.2425</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.8332</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9.9489</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1441.0251</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.7671</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1200.9457</v>
+      </c>
+      <c r="S4" t="n">
+        <v>229.3634</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4276.1096</v>
+      </c>
+      <c r="U4" t="n">
+        <v>451.4091</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>26.9398</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.1394</v>
+      </c>
+      <c r="D5" t="n">
+        <v>814.5335</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="F5" t="n">
+        <v>776.0705</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36.302</v>
+      </c>
       <c r="H5" t="n">
-        <v>6690.8</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+        <v>4440.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.1969</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2195.571</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1992.6269</v>
+      </c>
+      <c r="M5" t="n">
+        <v>186.8782</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.7069</v>
+      </c>
+      <c r="O5" t="n">
+        <v>9.6035</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1430.0203</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.8163</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1180.4325</v>
+      </c>
+      <c r="S5" t="n">
+        <v>239.168</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3949.1299</v>
+      </c>
+      <c r="U5" t="n">
+        <v>462.3482</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -664,7 +778,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>6527.5</v>
+        <v>4384.6</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -683,7 +797,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -693,7 +807,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>6214.9</v>
+        <v>4312</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -712,7 +826,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -722,7 +836,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>5957.9491</v>
+        <v>4329.4</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -736,12 +850,14 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>532.8167999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -751,7 +867,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>5736.2</v>
+        <v>4442.1</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -770,7 +886,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -780,7 +896,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>5585</v>
+        <v>4652.5854</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -794,12 +910,14 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>636.3044</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -809,7 +927,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>5440.9</v>
+        <v>4827.1362</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -823,12 +941,14 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>687.4005</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -838,7 +958,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>5279.3</v>
+        <v>4914.0893</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -852,417 +972,69 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>718.958</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.5626</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.7861</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1162.9815</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.1557</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1116.1326</v>
-      </c>
-      <c r="G13" t="n">
-        <v>43.9071</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>5066.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18.6933</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2467.4229</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.8216</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2266.5947</v>
-      </c>
-      <c r="M13" t="n">
-        <v>180.3133</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.0073</v>
-      </c>
-      <c r="O13" t="n">
-        <v>12.0832</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1436.398</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1204.9436</v>
-      </c>
-      <c r="S13" t="n">
-        <v>218.3412</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4587.6709</v>
-      </c>
+        <v>5018.4373</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>442.5616</v>
+        <v>721.2729</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>33.7088</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.8927</v>
-      </c>
-      <c r="D14" t="n">
-        <v>974.0993</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0412</v>
-      </c>
-      <c r="F14" t="n">
-        <v>934.3622</v>
-      </c>
-      <c r="G14" t="n">
-        <v>36.8032</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>4763.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>20.8672</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2347.9363</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.0249</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2140.8017</v>
-      </c>
-      <c r="M14" t="n">
-        <v>185.2425</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.8332</v>
-      </c>
-      <c r="O14" t="n">
-        <v>9.9489</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1441.0251</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.7671</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1200.9457</v>
-      </c>
-      <c r="S14" t="n">
-        <v>229.3634</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4276.1096</v>
-      </c>
-      <c r="U14" t="n">
-        <v>451.4091</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>26.9398</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.1394</v>
-      </c>
-      <c r="D15" t="n">
-        <v>814.5335</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0216</v>
-      </c>
-      <c r="F15" t="n">
-        <v>776.0705</v>
-      </c>
-      <c r="G15" t="n">
-        <v>36.302</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4440.1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15.1969</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2195.571</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1992.6269</v>
-      </c>
-      <c r="M15" t="n">
-        <v>186.8782</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.7069</v>
-      </c>
-      <c r="O15" t="n">
-        <v>9.6035</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1430.0203</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.8163</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1180.4325</v>
-      </c>
-      <c r="S15" t="n">
-        <v>239.168</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3949.1299</v>
-      </c>
-      <c r="U15" t="n">
-        <v>462.3482</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>4384.6</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>4312</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>4329.4</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>532.8167999999999</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>4442.1</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>4652.6</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>636.3044</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>4827.1362</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="n">
-        <v>687.4005</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>4914.0893</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+        <v>5120.5965</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
